--- a/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
@@ -1435,12 +1435,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.64</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1482,13 +1547,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,319 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -798,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -838,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -876,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -914,26 +708,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -952,26 +746,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -990,26 +784,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1028,26 +822,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1066,26 +860,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1120,7 +914,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1160,22 +954,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1198,22 +992,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1236,22 +1030,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1274,26 +1068,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1312,26 +1106,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1350,26 +1144,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1388,26 +1182,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1236,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1482,22 +1276,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1520,22 +1314,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1558,22 +1352,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1596,26 +1390,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1634,26 +1428,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1672,26 +1466,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1710,26 +1504,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1558,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1804,26 +1598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.1501</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1842,26 +1636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.1501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1880,26 +1674,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.1501</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1918,26 +1712,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1956,26 +1750,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.0581</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1994,26 +1788,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0341</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2032,26 +1826,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2065,112 +1859,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.48</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.65</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.62</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3</v>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,31 +644,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）人民币份额</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -665,31 +682,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）美钞</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -703,31 +720,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+          <t>上投摩根富时发达市场REITs指数（QDII）美汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>0.1050</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -741,27 +758,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>广发美国房地产指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -779,27 +796,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>广发美国房地产指数（QDII）美元A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -817,27 +834,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0341</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -855,22 +872,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -880,6 +897,82 @@
       </c>
       <c r="H8" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -954,26 +1047,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -992,26 +1085,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1030,26 +1123,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1068,26 +1161,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1106,26 +1199,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1144,26 +1237,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1275,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1329,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1276,22 +1369,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1314,22 +1407,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1352,22 +1445,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1390,26 +1483,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1428,26 +1521,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1466,26 +1559,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1504,26 +1597,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1598,22 +1691,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1636,22 +1729,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1674,22 +1767,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1712,22 +1805,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1750,22 +1843,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1788,22 +1881,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1826,22 +1919,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1854,6 +1947,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
+++ b/数据整理/stocks/其他/AVB-AvalonBay社区股份有限公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -973,328 +1274,6 @@
       </c>
       <c r="H10" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1130</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1130</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1130</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1369,26 +1348,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1407,26 +1386,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1445,26 +1424,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1578</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1483,26 +1462,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1521,26 +1500,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0621</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1559,26 +1538,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1597,26 +1576,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1630,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1691,22 +1670,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1729,22 +1708,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1767,22 +1746,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.14</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1576</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1805,26 +1784,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1843,26 +1822,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.74</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0621</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1881,26 +1860,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1919,26 +1898,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2013,22 +1992,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2051,22 +2030,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2089,22 +2068,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1501</t>
+          <t>0.1576</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2127,22 +2106,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2165,22 +2144,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2203,22 +2182,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2241,22 +2220,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2269,6 +2248,328 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
